--- a/log/channel/cnc_chp.xlsx
+++ b/log/channel/cnc_chp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92a996cea29e9e70/future/复旦/信息学院/课题组/narcolepsy_night/narcolepsy_night_code/log/channel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_ACC012BF81FA5E6E420EF3C06318EDE8E7C4D31B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C7FC7BD-3893-4C43-8179-FF2C59750761}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_EAF8729613028E6E047B1473EFBB9B71C5CF17B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D60814E-6344-4A0E-A6BD-287D36A67CF2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,276 +20,387 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="91">
-  <si>
-    <t>chp001-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp002-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp003-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp004-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp005-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp006-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp007-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp008-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp009-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp010-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp011-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp012-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp013-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp014-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp015-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp016-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp017-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp018-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp019-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp020-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp022-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp024-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp025-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp026-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp028-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp029-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp030-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp031-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp032-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp033-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp034-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp036-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp037-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp038-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp039-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp040-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp041-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp042-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp043-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp044-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp045-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp046-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp047-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp048-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp049-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp051-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp052-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp053-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp054-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp055-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp056-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp057-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp058-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp059-nsrr.edf</t>
-  </si>
-  <si>
-    <t>chp060-nsrr.edf</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>O1</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>cchin_l</t>
-  </si>
-  <si>
-    <t>ECG1_2</t>
-  </si>
-  <si>
-    <t>chin</t>
-  </si>
-  <si>
-    <t>lleg</t>
-  </si>
-  <si>
-    <t>snore</t>
-  </si>
-  <si>
-    <t>ECG</t>
-  </si>
-  <si>
-    <t>rleg</t>
-  </si>
-  <si>
-    <t>ECG2</t>
-  </si>
-  <si>
-    <t>lleg1_2</t>
-  </si>
-  <si>
-    <t>nas_pres</t>
-  </si>
-  <si>
-    <t>rleg1_2</t>
-  </si>
-  <si>
-    <t>flow</t>
-  </si>
-  <si>
-    <t>spo2</t>
-  </si>
-  <si>
-    <t>thorax</t>
-  </si>
-  <si>
-    <t>abdomen</t>
-  </si>
-  <si>
-    <t>therm</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>cs_EEG</t>
-  </si>
-  <si>
-    <t>pulse</t>
-  </si>
-  <si>
-    <t>ECG1</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>cs_LOC</t>
-  </si>
-  <si>
-    <t>cs_ROC</t>
-  </si>
-  <si>
-    <t>etco2</t>
-  </si>
-  <si>
-    <t>ECG3</t>
-  </si>
-  <si>
-    <t>cs_EMG</t>
-  </si>
-  <si>
-    <t>cs_ECG</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="128">
+  <si>
+    <t>chp001-nsrr</t>
+  </si>
+  <si>
+    <t>chp002-nsrr</t>
+  </si>
+  <si>
+    <t>chp003-nsrr</t>
+  </si>
+  <si>
+    <t>chp004-nsrr</t>
+  </si>
+  <si>
+    <t>chp005-nsrr</t>
+  </si>
+  <si>
+    <t>chp006-nsrr</t>
+  </si>
+  <si>
+    <t>chp007-nsrr</t>
+  </si>
+  <si>
+    <t>chp008-nsrr</t>
+  </si>
+  <si>
+    <t>chp009-nsrr</t>
+  </si>
+  <si>
+    <t>chp010-nsrr</t>
+  </si>
+  <si>
+    <t>chp011-nsrr</t>
+  </si>
+  <si>
+    <t>chp012-nsrr</t>
+  </si>
+  <si>
+    <t>chp013-nsrr</t>
+  </si>
+  <si>
+    <t>chp014-nsrr</t>
+  </si>
+  <si>
+    <t>chp015-nsrr</t>
+  </si>
+  <si>
+    <t>chp016-nsrr</t>
+  </si>
+  <si>
+    <t>chp017-nsrr</t>
+  </si>
+  <si>
+    <t>chp018-nsrr</t>
+  </si>
+  <si>
+    <t>chp019-nsrr</t>
+  </si>
+  <si>
+    <t>chp020-nsrr</t>
+  </si>
+  <si>
+    <t>chp022-nsrr</t>
+  </si>
+  <si>
+    <t>chp024-nsrr</t>
+  </si>
+  <si>
+    <t>chp025-nsrr</t>
+  </si>
+  <si>
+    <t>chp026-nsrr</t>
+  </si>
+  <si>
+    <t>chp028-nsrr</t>
+  </si>
+  <si>
+    <t>chp029-nsrr</t>
+  </si>
+  <si>
+    <t>chp030-nsrr</t>
+  </si>
+  <si>
+    <t>chp031-nsrr</t>
+  </si>
+  <si>
+    <t>chp032-nsrr</t>
+  </si>
+  <si>
+    <t>chp033-nsrr</t>
+  </si>
+  <si>
+    <t>chp034-nsrr</t>
+  </si>
+  <si>
+    <t>chp036-nsrr</t>
+  </si>
+  <si>
+    <t>chp037-nsrr</t>
+  </si>
+  <si>
+    <t>chp038-nsrr</t>
+  </si>
+  <si>
+    <t>chp039-nsrr</t>
+  </si>
+  <si>
+    <t>chp040-nsrr</t>
+  </si>
+  <si>
+    <t>chp041-nsrr</t>
+  </si>
+  <si>
+    <t>chp042-nsrr</t>
+  </si>
+  <si>
+    <t>chp043-nsrr</t>
+  </si>
+  <si>
+    <t>chp044-nsrr</t>
+  </si>
+  <si>
+    <t>chp045-nsrr</t>
+  </si>
+  <si>
+    <t>chp046-nsrr</t>
+  </si>
+  <si>
+    <t>chp047-nsrr</t>
+  </si>
+  <si>
+    <t>chp048-nsrr</t>
+  </si>
+  <si>
+    <t>chp049-nsrr</t>
+  </si>
+  <si>
+    <t>chp051-nsrr</t>
+  </si>
+  <si>
+    <t>chp052-nsrr</t>
+  </si>
+  <si>
+    <t>chp053-nsrr</t>
+  </si>
+  <si>
+    <t>chp054-nsrr</t>
+  </si>
+  <si>
+    <t>chp055-nsrr</t>
+  </si>
+  <si>
+    <t>chp056-nsrr</t>
+  </si>
+  <si>
+    <t>chp057-nsrr</t>
+  </si>
+  <si>
+    <t>chp058-nsrr</t>
+  </si>
+  <si>
+    <t>chp059-nsrr</t>
+  </si>
+  <si>
+    <t>chp060-nsrr</t>
+  </si>
+  <si>
+    <t>E1: 200</t>
+  </si>
+  <si>
+    <t>E1: 256</t>
+  </si>
+  <si>
+    <t>E1: 500</t>
+  </si>
+  <si>
+    <t>F3: 500</t>
+  </si>
+  <si>
+    <t>F3: 512</t>
+  </si>
+  <si>
+    <t>E1: 512</t>
+  </si>
+  <si>
+    <t>E2: 200</t>
+  </si>
+  <si>
+    <t>E2: 256</t>
+  </si>
+  <si>
+    <t>E2: 500</t>
+  </si>
+  <si>
+    <t>F4: 500</t>
+  </si>
+  <si>
+    <t>F4: 512</t>
+  </si>
+  <si>
+    <t>E2: 512</t>
+  </si>
+  <si>
+    <t>F3: 200</t>
+  </si>
+  <si>
+    <t>F3: 256</t>
+  </si>
+  <si>
+    <t>C3: 500</t>
+  </si>
+  <si>
+    <t>C3: 512</t>
+  </si>
+  <si>
+    <t>F4: 200</t>
+  </si>
+  <si>
+    <t>F4: 256</t>
+  </si>
+  <si>
+    <t>C4: 500</t>
+  </si>
+  <si>
+    <t>C4: 512</t>
+  </si>
+  <si>
+    <t>C3: 200</t>
+  </si>
+  <si>
+    <t>C3: 256</t>
+  </si>
+  <si>
+    <t>O1: 500</t>
+  </si>
+  <si>
+    <t>O1: 512</t>
+  </si>
+  <si>
+    <t>C4: 200</t>
+  </si>
+  <si>
+    <t>C4: 256</t>
+  </si>
+  <si>
+    <t>O2: 500</t>
+  </si>
+  <si>
+    <t>O2: 512</t>
+  </si>
+  <si>
+    <t>O1: 200</t>
+  </si>
+  <si>
+    <t>O1: 256</t>
+  </si>
+  <si>
+    <t>cchin_l: 256</t>
+  </si>
+  <si>
+    <t>O2: 200</t>
+  </si>
+  <si>
+    <t>O2: 256</t>
+  </si>
+  <si>
+    <t>ECG1_2: 128</t>
+  </si>
+  <si>
+    <t>chin: 200</t>
+  </si>
+  <si>
+    <t>chin: 500</t>
+  </si>
+  <si>
+    <t>cchin_l: 512</t>
+  </si>
+  <si>
+    <t>lleg: 128</t>
+  </si>
+  <si>
+    <t>snore: 500</t>
+  </si>
+  <si>
+    <t>lleg: 200</t>
+  </si>
+  <si>
+    <t>ECG: 512</t>
+  </si>
+  <si>
+    <t>rleg: 128</t>
+  </si>
+  <si>
+    <t>ECG2: 200</t>
+  </si>
+  <si>
+    <t>lleg1_2: 256</t>
+  </si>
+  <si>
+    <t>rleg: 200</t>
+  </si>
+  <si>
+    <t>lleg: 512</t>
+  </si>
+  <si>
+    <t>nas_pres: 128</t>
+  </si>
+  <si>
+    <t>rleg1_2: 256</t>
+  </si>
+  <si>
+    <t>rleg: 512</t>
+  </si>
+  <si>
+    <t>flow: 32</t>
+  </si>
+  <si>
+    <t>spo2: 16</t>
+  </si>
+  <si>
+    <t>snore: 256</t>
+  </si>
+  <si>
+    <t>flow: 100</t>
+  </si>
+  <si>
+    <t>thorax: 32</t>
+  </si>
+  <si>
+    <t>nas_pres: 32</t>
+  </si>
+  <si>
+    <t>thorax: 100</t>
+  </si>
+  <si>
+    <t>abdomen: 32</t>
+  </si>
+  <si>
+    <t>therm: 32</t>
+  </si>
+  <si>
+    <t>abdomen: 100</t>
+  </si>
+  <si>
+    <t>position: 16</t>
+  </si>
+  <si>
+    <t>spo2: 1</t>
+  </si>
+  <si>
+    <t>position: 1</t>
+  </si>
+  <si>
+    <t>cs_EEG: 100</t>
+  </si>
+  <si>
+    <t>pulse: 1</t>
+  </si>
+  <si>
+    <t>ECG1: 200</t>
+  </si>
+  <si>
+    <t>sum: 32</t>
+  </si>
+  <si>
+    <t>cs_LOC: 100</t>
+  </si>
+  <si>
+    <t>cs_ROC: 100</t>
+  </si>
+  <si>
+    <t>etco2: 10</t>
+  </si>
+  <si>
+    <t>ECG3: 200</t>
+  </si>
+  <si>
+    <t>cs_EMG: 100</t>
+  </si>
+  <si>
+    <t>cs_ECG: 100</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -669,10 +780,42 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="52" width="15" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -849,166 +992,166 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" t="s">
         <v>56</v>
       </c>
-      <c r="V2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
       <c r="X2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>55</v>
       </c>
       <c r="Z2" t="s">
         <v>55</v>
       </c>
       <c r="AA2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AC2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" t="s">
-        <v>55</v>
-      </c>
       <c r="AI2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL2" t="s">
         <v>56</v>
       </c>
-      <c r="AL2" t="s">
-        <v>55</v>
-      </c>
       <c r="AM2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AN2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>56</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>55</v>
-      </c>
       <c r="AR2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS2" t="s">
         <v>56</v>
       </c>
-      <c r="AS2" t="s">
-        <v>55</v>
-      </c>
       <c r="AT2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AU2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AV2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AW2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AX2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AY2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AZ2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BB2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BD2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
@@ -1016,169 +1159,169 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Z3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AA3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AB3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AC3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AE3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AH3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AI3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AJ3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AL3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AM3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AN3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AO3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AP3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AQ3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AR3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AS3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AT3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AU3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AV3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AW3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AX3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AY3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AZ3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="BA3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="BB3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="BC3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="BD3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
@@ -1186,169 +1329,169 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="U4" t="s">
+        <v>69</v>
+      </c>
+      <c r="V4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN4" t="s">
         <v>59</v>
       </c>
-      <c r="V4" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>56</v>
-      </c>
       <c r="AO4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AP4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AQ4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AR4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AS4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AT4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AU4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AV4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AW4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AX4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AY4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AZ4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="BA4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BB4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="BC4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BD4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
@@ -1356,169 +1499,169 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="Q5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AC5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AI5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AM5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AN5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AO5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AP5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AQ5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AR5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AS5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AT5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AU5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AV5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AW5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AX5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AY5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AZ5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="BA5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="BB5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="BC5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="BD5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
@@ -1526,169 +1669,169 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="Q6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="R6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AC6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AN6" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AO6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AP6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AQ6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AR6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AS6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AT6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AU6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AV6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AW6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AX6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AY6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AZ6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="BA6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="BB6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="BC6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="BD6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
@@ -1696,169 +1839,169 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AN7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="AO7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AP7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AQ7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AR7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AT7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AU7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AV7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AW7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AX7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AY7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AZ7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BA7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="BB7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BC7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="BD7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
@@ -1866,169 +2009,169 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="S8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="T8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="X8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Y8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="Z8" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="AA8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AB8" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AD8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AE8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AF8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AG8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AJ8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AK8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AL8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AM8" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AN8" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="AO8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AP8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AQ8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AR8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AS8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AT8" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AU8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AV8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AW8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AX8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AY8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AZ8" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="BA8" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="BB8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="BC8" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="BD8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
@@ -2036,169 +2179,169 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="Q9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="S9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="V9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="X9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Y9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="Z9" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="AA9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AB9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AD9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AE9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AF9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AG9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AH9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AJ9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AK9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AL9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AM9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AO9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AP9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AQ9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AR9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AS9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AT9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AU9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AV9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AW9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AX9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AY9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AZ9" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="BA9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="BC9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
@@ -2206,169 +2349,169 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Q10" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="R10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="S10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="U10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="V10" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="W10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="Y10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Z10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="AA10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AB10" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AC10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AD10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AE10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="AH10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AJ10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AK10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="AL10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="AO10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AP10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="AQ10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AR10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="AS10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AT10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="AU10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AV10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AW10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AX10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AY10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AZ10" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="BA10" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="BB10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="BC10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="BD10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
@@ -2376,169 +2519,169 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="R11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="S11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="T11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="U11" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="V11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="W11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="X11" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="Y11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="Z11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AA11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AB11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AC11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AD11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AE11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AF11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AG11" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="AH11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AI11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AJ11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AK11" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AL11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AM11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AN11" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="AO11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AP11" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AQ11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AR11" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AS11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AT11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AU11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AV11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AW11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AX11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AY11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AZ11" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="BA11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="BB11" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="BC11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="BD11" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
@@ -2546,169 +2689,169 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="N12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="R12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="S12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="U12" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="V12" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="W12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="X12" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="Y12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="Z12" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="AA12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AB12" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="AC12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AD12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AE12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AF12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AG12" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AH12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AI12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="AL12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AM12" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AN12" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AO12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AP12" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="AQ12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AR12" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="AS12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AT12" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="AU12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AV12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AW12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AX12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AY12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AZ12" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="BA12" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="BB12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="BC12" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="BD12" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
@@ -2716,169 +2859,169 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="P13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="Q13" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="R13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="S13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="T13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="U13" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="V13" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="W13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="X13" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="Y13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="Z13" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AA13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AB13" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AC13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AD13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AE13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AF13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AG13" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AH13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AI13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AJ13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="AL13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AM13" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="AN13" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AO13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AP13" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="AQ13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AR13" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="AS13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AT13" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AU13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AV13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AW13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AX13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AY13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AZ13" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="BA13" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="BB13" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="BC13" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="BD13" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
@@ -2886,169 +3029,169 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="Q14" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="R14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="S14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="T14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="U14" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="V14" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="W14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="X14" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="Y14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="Z14" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="AA14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AB14" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="AC14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AD14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AE14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AF14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AG14" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AH14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AI14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AJ14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AL14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AM14" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AN14" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AO14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AP14" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AQ14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AR14" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AS14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AT14" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="AU14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AV14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AW14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AX14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AY14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AZ14" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="BA14" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="BB14" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="BC14" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="BD14" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
@@ -3056,169 +3199,169 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="M15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="N15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="Q15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="R15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="S15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="T15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="U15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="V15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="W15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="X15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="Z15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AA15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AB15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AD15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AE15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AF15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AG15" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AH15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AI15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AJ15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AL15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AM15" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AO15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AP15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AQ15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AR15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AS15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AU15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AV15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AW15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AX15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AY15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AZ15" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="BA15" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="BB15" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="BC15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="BD15" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
@@ -3226,169 +3369,169 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="N16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="Q16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="R16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="S16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="T16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="U16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="V16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="W16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="X16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="Y16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="Z16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AA16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AB16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AD16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AE16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AF16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AG16" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AH16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AI16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AJ16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AL16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM16" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AN16" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AO16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AP16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AQ16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AR16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AS16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AT16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AU16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AV16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AW16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AX16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AY16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AZ16" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="BA16" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="BB16" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="BC16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="BD16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.25">
@@ -3396,169 +3539,169 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="N17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="P17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="Q17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="R17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="S17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="T17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="U17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="V17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="W17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="X17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="Y17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="Z17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AA17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AB17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AD17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AE17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AF17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AG17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AH17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AI17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AJ17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AK17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AL17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM17" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AN17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AO17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AP17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AQ17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AR17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AS17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AT17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AU17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AV17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AW17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AX17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AY17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AZ17" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="BA17" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="BB17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="BC17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="BD17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
@@ -3566,169 +3709,169 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="M18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="N18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="Q18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="R18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="S18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="T18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="U18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="V18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="W18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="X18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="Y18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="Z18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AA18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AB18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AC18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AD18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AE18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AF18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AG18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AH18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AI18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AJ18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AK18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AL18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AM18" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AN18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AO18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AP18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AQ18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AR18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AS18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AT18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AU18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AV18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AW18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AX18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AY18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AZ18" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="BA18" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="BB18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="BC18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="BD18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
@@ -3736,169 +3879,169 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="L19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="M19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="N19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="P19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="Q19" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="R19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="S19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="T19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="U19" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="V19" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="W19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="X19" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="Y19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="Z19" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AA19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AB19" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AC19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AD19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AE19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AG19" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AH19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AI19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AJ19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AK19" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AL19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AM19" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AN19" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="AO19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AP19" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AQ19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AR19" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AS19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AT19" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AU19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AV19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AW19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AX19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AY19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AZ19" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="BA19" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="BB19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="BC19" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="BD19" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.25">
@@ -3906,169 +4049,169 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="L20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="N20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="P20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="Q20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="R20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="S20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="T20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="U20" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="V20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="W20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="X20" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="Y20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="Z20" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AA20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AB20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AC20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AD20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AE20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AF20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AG20" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AH20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AI20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AJ20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AL20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AM20" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="AN20" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AO20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AP20" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AQ20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AR20" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AS20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AT20" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AU20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AV20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AW20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AX20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AY20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AZ20" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="BA20" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="BB20" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="BC20" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="BD20" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.25">
@@ -4076,169 +4219,169 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="N21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="P21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="Q21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="R21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="S21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="T21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="U21" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="V21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="W21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="X21" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="Y21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="Z21" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="AA21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AB21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AC21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AD21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AE21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AF21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AG21" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AH21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AI21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AJ21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AK21" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AL21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AM21" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="AN21" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AO21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AP21" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AQ21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AR21" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AS21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AT21" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="AU21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AV21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AW21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AX21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AY21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AZ21" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="BA21" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="BB21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="BC21" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="BD21" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.25">
@@ -4246,169 +4389,169 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="I22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="L22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="M22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="N22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="P22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="Q22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="R22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="S22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="T22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="U22" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="V22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="W22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="X22" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="Y22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="Z22" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AA22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AB22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AC22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AD22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AE22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AF22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AG22" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AH22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AI22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AJ22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AK22" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AL22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AM22" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AN22" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AO22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AP22" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AQ22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AR22" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AS22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AT22" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AU22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AV22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AW22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AX22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AY22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AZ22" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="BA22" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="BB22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="BC22" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="BD22" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
@@ -4416,169 +4559,169 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="K23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="L23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="M23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="N23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="O23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="P23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="Q23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="R23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="S23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="T23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="U23" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="V23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="W23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="X23" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="Y23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="Z23" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AA23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AB23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AC23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AD23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AE23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AF23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AG23" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AH23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AI23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AJ23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AK23" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AL23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AM23" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AN23" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AO23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AP23" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AQ23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AR23" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AS23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AT23" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AU23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AV23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AW23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AX23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AY23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AZ23" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="BA23" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="BB23" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="BC23" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="BD23" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
@@ -4586,169 +4729,169 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="L24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="M24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="N24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="O24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="P24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="Q24" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="R24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="S24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="T24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="U24" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="V24" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="W24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="X24" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="Y24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="Z24" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AA24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AB24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AC24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AD24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AE24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AF24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AH24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AI24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AJ24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AL24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AM24" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AN24" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AO24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AP24" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AQ24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AR24" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AS24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AT24" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AU24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AV24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AW24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AX24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AY24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AZ24" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="BA24" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="BB24" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="BC24" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="BD24" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
@@ -4756,169 +4899,169 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="J25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="M25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="N25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="P25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="Q25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="R25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="S25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="T25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="U25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="V25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="W25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="X25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="Y25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="Z25" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AA25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AB25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AC25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AD25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AE25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AF25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AG25" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AH25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AI25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AJ25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AK25" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AL25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AM25" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AN25" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AO25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AP25" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AQ25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AR25" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AS25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AT25" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="AU25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AV25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AW25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AX25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AY25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AZ25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="BA25" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="BB25" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="BC25" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="BD25" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
@@ -4926,169 +5069,169 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="I26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="K26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="M26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="N26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="O26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="P26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="Q26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="R26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="S26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="T26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="U26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="V26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="W26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="X26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="Y26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="Z26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AA26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AB26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AC26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AD26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AE26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AF26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AG26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AH26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AI26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AJ26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AK26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AL26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AM26" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AN26" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AO26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AP26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AQ26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AR26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AS26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AT26" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="AU26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AV26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AW26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AX26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AY26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AZ26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="BA26" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="BB26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="BC26" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="BD26" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/log/channel/cnc_chp.xlsx
+++ b/log/channel/cnc_chp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92a996cea29e9e70/future/复旦/信息学院/课题组/narcolepsy_night/narcolepsy_night_code/log/channel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_EAF8729613028E6E047B1473EFBB9B71C5CF17B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D60814E-6344-4A0E-A6BD-287D36A67CF2}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_EAF8729613028E6E047B1473EFBB9B71C5CF17B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C60911-3EA7-4396-B9ED-59C24981CC6D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="129">
   <si>
     <t>chp001-nsrr</t>
   </si>
@@ -404,6 +404,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>E1: 256</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,6 +426,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -432,15 +437,81 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -463,14 +534,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,6 +616,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -500,34 +631,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -774,13 +905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD26"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="AH31" sqref="AH31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -988,169 +1119,169 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AL2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AM2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AP2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AU2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AV2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AW2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AX2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AY2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AZ2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="BA2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AK2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="BC2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AN2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD2" t="s">
+      <c r="BD2" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1158,169 +1289,169 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AZ3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BA3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BB3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BC3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BD3" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1328,169 +1459,169 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AH4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AK4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AL4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AP4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AQ4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AR4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AT4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AV4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AW4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AX4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AY4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AZ4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BA4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BB4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BC4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BD4" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1498,169 +1629,169 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AI5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AL5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AM5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AP5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AQ5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AR5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AS5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AT5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AU5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AV5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AW5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AY5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="AZ5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BA5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BB5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BC5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BD5" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1668,169 +1799,169 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AE6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AF6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AH6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AI6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AK6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AL6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AM6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AN6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AO6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AP6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AQ6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AR6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AS6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AT6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AU6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AV6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AW6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AX6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AY6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="AZ6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BA6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BB6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BC6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BD6" s="16" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1838,169 +1969,169 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AE7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AH7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AI7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AK7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AL7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AM7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AN7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AO7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AP7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AQ7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AR7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AS7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AT7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AU7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AV7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AW7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AX7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AY7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="AZ7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BA7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BB7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BC7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BD7" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2008,169 +2139,169 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AE8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AF8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AH8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AI8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AJ8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AK8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AL8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AM8" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AN8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AO8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AP8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AQ8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AR8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AS8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AT8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AU8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AV8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AW8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AX8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AY8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="AZ8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BA8" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BB8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BC8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BD8" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2178,169 +2309,169 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AE9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AF9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AH9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AI9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AJ9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AK9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AL9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AM9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AN9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AO9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AP9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AQ9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AR9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AS9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AT9" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AU9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AV9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AW9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AX9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AY9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="AZ9" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BA9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BB9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BC9" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BD9" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2348,169 +2479,169 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AE10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AF10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AG10" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AH10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AI10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AJ10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AK10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AL10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AM10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AN10" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AO10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AP10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AQ10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AR10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AS10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AT10" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AU10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AV10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AW10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AX10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AY10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="AZ10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BA10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BB10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BC10" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BD10" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2518,169 +2649,169 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AC11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AE11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AF11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AG11" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AH11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AI11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AJ11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AK11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AL11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AM11" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AN11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AO11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AP11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AQ11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AR11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AS11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AT11" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AU11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AV11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AW11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AX11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AY11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="AZ11" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BA11" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BB11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="BC11" t="s">
+      <c r="BC11" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BD11" s="16" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2688,169 +2819,169 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AC12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AE12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AF12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AG12" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AH12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AI12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AJ12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AK12" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AL12" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AM12" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AN12" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AO12" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AP12" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AQ12" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AR12" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AS12" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AT12" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AU12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AV12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AW12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AX12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AY12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="AZ12" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BA12" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BB12" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="BC12" t="s">
+      <c r="BC12" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BD12" s="16" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2858,169 +2989,169 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="X13" t="s">
+      <c r="X13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AB13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AC13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AD13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AE13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AF13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AG13" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AH13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AI13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AJ13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AK13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AL13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AM13" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AN13" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AO13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AP13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AQ13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AR13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AS13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AT13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AU13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AV13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AW13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AX13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AY13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="AZ13" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BA13" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BB13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="BC13" t="s">
+      <c r="BC13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BD13" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3028,169 +3159,169 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AE14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AF14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AG14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AH14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AI14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AJ14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AK14" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AL14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AM14" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AN14" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AO14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AP14" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AQ14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AR14" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AS14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AT14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AU14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AV14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AW14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AX14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AY14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="AZ14" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BA14" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BB14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="BC14" t="s">
+      <c r="BC14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BD14" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3198,169 +3329,169 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Z15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AA15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AB15" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AC15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AD15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AE15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AF15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AG15" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AH15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AI15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AJ15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AK15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AL15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AM15" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AN15" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AO15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AP15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AQ15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AR15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AS15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AT15" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AU15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AV15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AW15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AX15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AY15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="AZ15" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BA15" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BB15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="BC15" t="s">
+      <c r="BC15" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BD15" s="16" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3368,169 +3499,169 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="X16" t="s">
+      <c r="X16" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Y16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Z16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AA16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AB16" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AD16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AE16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AF16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AG16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AH16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AI16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AJ16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AK16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AL16" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AM16" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AN16" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AO16" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AP16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AQ16" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AR16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AS16" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AT16" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AU16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AV16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AW16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AX16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AY16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="AZ16" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BA16" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BB16" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="BC16" t="s">
+      <c r="BC16" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BD16" s="16" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3538,169 +3669,169 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="X17" t="s">
+      <c r="X17" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Z17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AA17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB17" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AD17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AE17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AF17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AG17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AH17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AI17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AJ17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AK17" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AL17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AM17" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AN17" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AO17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AP17" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AQ17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AR17" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AS17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AT17" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AU17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AV17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AW17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AX17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AY17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="AZ17" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BA17" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BB17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BC17" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BD17" s="16" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3708,169 +3839,169 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X18" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="Z18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AA18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB18" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AD18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AE18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AF18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AG18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AH18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AI18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AJ18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AK18" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AL18" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AM18" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AN18" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AO18" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AP18" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AQ18" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AR18" t="s">
+      <c r="AR18" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AS18" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AT18" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AU18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AV18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AW18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AX18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AY18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="AZ18" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="BA18" t="s">
+      <c r="BA18" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BB18" t="s">
+      <c r="BB18" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BC18" t="s">
+      <c r="BC18" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="BD18" t="s">
+      <c r="BD18" s="16" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3878,169 +4009,169 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X19" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Z19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AA19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AC19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AD19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AE19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AF19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AG19" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AH19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AI19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AJ19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AK19" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AL19" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AM19" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AN19" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AO19" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AP19" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AQ19" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AR19" t="s">
+      <c r="AR19" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AS19" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AT19" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AU19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AV19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AW19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="AX19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="AY19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="AZ19" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BA19" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BB19" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="BC19" t="s">
+      <c r="BC19" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="BD19" t="s">
+      <c r="BD19" s="16" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4048,169 +4179,169 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X20" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Z20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AA20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB20" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AC20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AD20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AE20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AF20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AG20" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AH20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AI20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AJ20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AK20" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AL20" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AM20" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AN20" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AO20" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AP20" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AQ20" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AR20" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AS20" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AT20" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AU20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AV20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AW20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="AX20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="AY20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="AZ20" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="BA20" t="s">
+      <c r="BA20" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="BB20" t="s">
+      <c r="BB20" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="BC20" t="s">
+      <c r="BC20" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="BD20" t="s">
+      <c r="BD20" s="16" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4218,169 +4349,169 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U21" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="W21" t="s">
+      <c r="W21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="X21" t="s">
+      <c r="X21" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Y21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Z21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AA21" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AC21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AD21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AE21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AF21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AG21" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AH21" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AI21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AJ21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AK21" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AL21" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AM21" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="AN21" t="s">
+      <c r="AN21" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="AO21" t="s">
+      <c r="AO21" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AP21" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AQ21" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AR21" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AS21" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AT21" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="AU21" t="s">
+      <c r="AU21" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AV21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AW21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="AX21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="AY21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="AZ21" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BA21" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="BB21" t="s">
+      <c r="BB21" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="BC21" t="s">
+      <c r="BC21" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="BD21" t="s">
+      <c r="BD21" s="16" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4388,169 +4519,169 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U22" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X22" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y22" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Z22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AA22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AB22" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AC22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AD22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AE22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AF22" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AG22" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AH22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AI22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AJ22" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AK22" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AL22" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AM22" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AN22" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AO22" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AP22" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AQ22" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AR22" t="s">
+      <c r="AR22" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AS22" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AT22" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AU22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AV22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AW22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AX22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AY22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="AZ22" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BA22" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="BB22" t="s">
+      <c r="BB22" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="BC22" t="s">
+      <c r="BC22" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="BD22" t="s">
+      <c r="BD22" s="16" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4558,169 +4689,169 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T23" t="s">
+      <c r="T23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X23" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y23" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Z23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AA23" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AB23" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AC23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AD23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AE23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AF23" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AG23" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AH23" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AI23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AJ23" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AK23" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AL23" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AM23" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AN23" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="AO23" t="s">
+      <c r="AO23" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AP23" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AQ23" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AR23" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AS23" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AT23" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AU23" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AV23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AW23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AX23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AY23" s="3" t="s">
         <v>125</v>
       </c>
       <c r="AZ23" t="s">
         <v>127</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BA23" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BB23" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BC23" t="s">
+      <c r="BC23" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="BD23" t="s">
+      <c r="BD23" s="16" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4728,169 +4859,169 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="3" t="s">
         <v>126</v>
       </c>
       <c r="Q24" t="s">
         <v>127</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24" s="8" t="s">
         <v>125</v>
       </c>
       <c r="V24" t="s">
         <v>127</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X24" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Z24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AA24" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AB24" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AC24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AD24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AE24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AF24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AG24" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AH24" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AI24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AJ24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AK24" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AL24" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AM24" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AN24" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AO24" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AP24" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AQ24" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AR24" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AS24" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AT24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AU24" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AV24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AW24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AX24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="AY24" s="3" t="s">
         <v>126</v>
       </c>
       <c r="AZ24" t="s">
         <v>127</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BA24" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BB24" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="BC24" t="s">
+      <c r="BC24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="BD24" t="s">
+      <c r="BD24" s="16" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4898,7 +5029,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C25" t="s">
@@ -4910,7 +5041,7 @@
       <c r="E25" t="s">
         <v>127</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G25" t="s">
@@ -4970,7 +5101,7 @@
       <c r="Y25" t="s">
         <v>127</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Z25" s="2" t="s">
         <v>125</v>
       </c>
       <c r="AA25" t="s">
@@ -4991,7 +5122,7 @@
       <c r="AF25" t="s">
         <v>127</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AG25" s="10" t="s">
         <v>126</v>
       </c>
       <c r="AH25" t="s">
@@ -5003,34 +5134,34 @@
       <c r="AJ25" t="s">
         <v>127</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AK25" s="11" t="s">
         <v>126</v>
       </c>
       <c r="AL25" t="s">
         <v>127</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AM25" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AN25" s="17" t="s">
         <v>125</v>
       </c>
       <c r="AO25" t="s">
         <v>127</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AP25" s="11" t="s">
         <v>126</v>
       </c>
       <c r="AQ25" t="s">
         <v>127</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AR25" s="11" t="s">
         <v>126</v>
       </c>
       <c r="AS25" t="s">
         <v>127</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AT25" s="15" t="s">
         <v>125</v>
       </c>
       <c r="AU25" t="s">
@@ -5051,16 +5182,16 @@
       <c r="AZ25" t="s">
         <v>127</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BA25" s="13" t="s">
         <v>125</v>
       </c>
       <c r="BB25" t="s">
         <v>127</v>
       </c>
-      <c r="BC25" t="s">
+      <c r="BC25" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="BD25" t="s">
+      <c r="BD25" s="16" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5179,10 +5310,10 @@
       <c r="AL26" t="s">
         <v>127</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AM26" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AN26" s="17" t="s">
         <v>126</v>
       </c>
       <c r="AO26" t="s">
@@ -5200,7 +5331,7 @@
       <c r="AS26" t="s">
         <v>127</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AT26" s="15" t="s">
         <v>126</v>
       </c>
       <c r="AU26" t="s">
@@ -5221,21 +5352,198 @@
       <c r="AZ26" t="s">
         <v>127</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BA26" s="13" t="s">
         <v>126</v>
       </c>
       <c r="BB26" t="s">
         <v>127</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BC26" s="15" t="s">
         <v>126</v>
       </c>
       <c r="BD26" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:56" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="18">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18">
+        <v>2</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2</v>
+      </c>
+      <c r="E27" s="18">
+        <v>2</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18">
+        <v>2</v>
+      </c>
+      <c r="H27" s="18">
+        <v>2</v>
+      </c>
+      <c r="I27" s="18">
+        <v>2</v>
+      </c>
+      <c r="J27" s="18">
+        <v>2</v>
+      </c>
+      <c r="K27" s="18">
+        <v>2</v>
+      </c>
+      <c r="L27" s="18">
+        <v>2</v>
+      </c>
+      <c r="M27" s="18">
+        <v>2</v>
+      </c>
+      <c r="N27" s="18">
+        <v>2</v>
+      </c>
+      <c r="O27" s="18">
+        <v>2</v>
+      </c>
+      <c r="P27" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>3</v>
+      </c>
+      <c r="R27" s="18">
+        <v>2</v>
+      </c>
+      <c r="S27" s="18">
+        <v>2</v>
+      </c>
+      <c r="T27" s="18">
+        <v>2</v>
+      </c>
+      <c r="U27" s="18">
+        <v>4</v>
+      </c>
+      <c r="V27" s="18">
+        <v>3</v>
+      </c>
+      <c r="W27" s="18">
+        <v>2</v>
+      </c>
+      <c r="X27" s="18">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="18">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="18">
+        <v>6</v>
+      </c>
+      <c r="AH27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AI27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="18">
+        <v>7</v>
+      </c>
+      <c r="AL27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AM27" s="18">
+        <v>8</v>
+      </c>
+      <c r="AN27" s="18">
+        <v>9</v>
+      </c>
+      <c r="AO27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP27" s="18">
+        <v>7</v>
+      </c>
+      <c r="AQ27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="18">
+        <v>7</v>
+      </c>
+      <c r="AS27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AT27" s="18">
+        <v>10</v>
+      </c>
+      <c r="AU27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AW27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AX27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AY27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AZ27" s="18">
+        <v>11</v>
+      </c>
+      <c r="BA27" s="18">
+        <v>8</v>
+      </c>
+      <c r="BB27" s="18">
+        <v>2</v>
+      </c>
+      <c r="BC27" s="18">
+        <v>10</v>
+      </c>
+      <c r="BD27" s="18">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B27:BD27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
